--- a/nr-add-mapping-mos/ig/StructureDefinition-as-ext-patient-type.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-ext-patient-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T10:57:32+00:00</t>
+    <t>2025-01-02T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-mapping-mos/ig/StructureDefinition-as-ext-patient-type.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-ext-patient-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:56:45+00:00</t>
+    <t>2025-01-03T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
